--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_6_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_6_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7972.87720275504</v>
+        <v>1586602.563348253</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7972.87720275504</v>
+        <v>1586602.563348253</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35068.8293878566</v>
+        <v>2125031.396046597</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35068.8293878566</v>
+        <v>2125031.396046597</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418483223.014973</v>
+        <v>55862235.22842879</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12730.94667674768</v>
+        <v>1260098.489957546</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24906.81643110797</v>
+        <v>2425022.252265195</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37082.68618546824</v>
+        <v>3589946.014572846</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50550.25020637543</v>
+        <v>4684879.558900355</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64017.81422728257</v>
+        <v>5779813.103227865</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>77485.37824818971</v>
+        <v>6874746.647555371</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>91196.09802863165</v>
+        <v>7976432.005298794</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>104872.8890984409</v>
+        <v>9071365.549626298</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>118303.1191561901</v>
+        <v>10159452.72538637</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>131767.7530760872</v>
+        <v>11254386.26971387</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>144891.1282431652</v>
+        <v>12364160.96612952</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>157690.7995636874</v>
+        <v>13489272.09374058</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>170358.0581412362</v>
+        <v>14621243.31016431</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>183952.4604933592</v>
+        <v>15701959.1503701</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>197303.3872899266</v>
+        <v>16775914.29724256</v>
       </c>
     </row>
   </sheetData>
